--- a/HSCCI.xlsx
+++ b/HSCCI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="270">
   <si>
     <t>ticker</t>
   </si>
@@ -791,6 +791,39 @@
   </si>
   <si>
     <t>2016-07-21</t>
+  </si>
+  <si>
+    <t>2016-07-22</t>
+  </si>
+  <si>
+    <t>2016-07-25</t>
+  </si>
+  <si>
+    <t>2016-07-26</t>
+  </si>
+  <si>
+    <t>2016-07-27</t>
+  </si>
+  <si>
+    <t>2016-07-28</t>
+  </si>
+  <si>
+    <t>2016-07-29</t>
+  </si>
+  <si>
+    <t>2016-08-01</t>
+  </si>
+  <si>
+    <t>2016-08-03</t>
+  </si>
+  <si>
+    <t>2016-08-04</t>
+  </si>
+  <si>
+    <t>2016-08-05</t>
+  </si>
+  <si>
+    <t>2016-08-08</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6970,6 +7003,259 @@
         <v>3795.35</v>
       </c>
     </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" t="s">
+        <v>259</v>
+      </c>
+      <c r="D254">
+        <v>3792.93</v>
+      </c>
+      <c r="E254">
+        <v>3768.23</v>
+      </c>
+      <c r="F254">
+        <v>3792.93</v>
+      </c>
+      <c r="G254">
+        <v>3778.62</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" t="s">
+        <v>260</v>
+      </c>
+      <c r="D255">
+        <v>3810.02</v>
+      </c>
+      <c r="E255">
+        <v>3752.48</v>
+      </c>
+      <c r="F255">
+        <v>3810.02</v>
+      </c>
+      <c r="G255">
+        <v>3769.89</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" t="s">
+        <v>261</v>
+      </c>
+      <c r="D256">
+        <v>3756.34</v>
+      </c>
+      <c r="E256">
+        <v>3748.57</v>
+      </c>
+      <c r="F256">
+        <v>3811.17</v>
+      </c>
+      <c r="G256">
+        <v>3793.97</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" t="s">
+        <v>262</v>
+      </c>
+      <c r="D257">
+        <v>3799.52</v>
+      </c>
+      <c r="E257">
+        <v>3766.53</v>
+      </c>
+      <c r="F257">
+        <v>3819.27</v>
+      </c>
+      <c r="G257">
+        <v>3791.59</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258" t="s">
+        <v>263</v>
+      </c>
+      <c r="D258">
+        <v>3778.32</v>
+      </c>
+      <c r="E258">
+        <v>3751.73</v>
+      </c>
+      <c r="F258">
+        <v>3786.4</v>
+      </c>
+      <c r="G258">
+        <v>3786.4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" t="s">
+        <v>264</v>
+      </c>
+      <c r="D259">
+        <v>3768.55</v>
+      </c>
+      <c r="E259">
+        <v>3707.02</v>
+      </c>
+      <c r="F259">
+        <v>3783.31</v>
+      </c>
+      <c r="G259">
+        <v>3713.94</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260" t="s">
+        <v>265</v>
+      </c>
+      <c r="D260">
+        <v>3737.73</v>
+      </c>
+      <c r="E260">
+        <v>3737.73</v>
+      </c>
+      <c r="F260">
+        <v>3774.42</v>
+      </c>
+      <c r="G260">
+        <v>3768.08</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261" t="s">
+        <v>266</v>
+      </c>
+      <c r="D261">
+        <v>3727.57</v>
+      </c>
+      <c r="E261">
+        <v>3695.43</v>
+      </c>
+      <c r="F261">
+        <v>3729.28</v>
+      </c>
+      <c r="G261">
+        <v>3698.64</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262" t="s">
+        <v>267</v>
+      </c>
+      <c r="D262">
+        <v>3722.93</v>
+      </c>
+      <c r="E262">
+        <v>3698.57</v>
+      </c>
+      <c r="F262">
+        <v>3723.38</v>
+      </c>
+      <c r="G262">
+        <v>3710.17</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>268</v>
+      </c>
+      <c r="D263">
+        <v>3733.7</v>
+      </c>
+      <c r="E263">
+        <v>3726.92</v>
+      </c>
+      <c r="F263">
+        <v>3757.13</v>
+      </c>
+      <c r="G263">
+        <v>3746.87</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" t="s">
+        <v>269</v>
+      </c>
+      <c r="D264">
+        <v>3770.46</v>
+      </c>
+      <c r="E264">
+        <v>3751.5</v>
+      </c>
+      <c r="F264">
+        <v>3819.36</v>
+      </c>
+      <c r="G264">
+        <v>3819.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HSCCI.xlsx
+++ b/HSCCI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="273">
   <si>
     <t>ticker</t>
   </si>
@@ -824,6 +824,15 @@
   </si>
   <si>
     <t>2016-08-08</t>
+  </si>
+  <si>
+    <t>2016-08-09</t>
+  </si>
+  <si>
+    <t>2016-08-10</t>
+  </si>
+  <si>
+    <t>2016-08-11</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G264"/>
+  <dimension ref="A1:G267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7256,6 +7265,75 @@
         <v>3819.36</v>
       </c>
     </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" t="s">
+        <v>270</v>
+      </c>
+      <c r="D265">
+        <v>3821.06</v>
+      </c>
+      <c r="E265">
+        <v>3811.75</v>
+      </c>
+      <c r="F265">
+        <v>3850.55</v>
+      </c>
+      <c r="G265">
+        <v>3845.15</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>6</v>
+      </c>
+      <c r="C266" t="s">
+        <v>271</v>
+      </c>
+      <c r="D266">
+        <v>3853.07</v>
+      </c>
+      <c r="E266">
+        <v>3819.14</v>
+      </c>
+      <c r="F266">
+        <v>3875.04</v>
+      </c>
+      <c r="G266">
+        <v>3848.18</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" t="s">
+        <v>272</v>
+      </c>
+      <c r="D267">
+        <v>3856.78</v>
+      </c>
+      <c r="E267">
+        <v>3833.29</v>
+      </c>
+      <c r="F267">
+        <v>3870.33</v>
+      </c>
+      <c r="G267">
+        <v>3856.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HSCCI.xlsx
+++ b/HSCCI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="274">
   <si>
     <t>ticker</t>
   </si>
@@ -833,6 +833,9 @@
   </si>
   <si>
     <t>2016-08-11</t>
+  </si>
+  <si>
+    <t>2016-08-12</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G267"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7334,6 +7337,29 @@
         <v>3856.32</v>
       </c>
     </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" t="s">
+        <v>273</v>
+      </c>
+      <c r="D268">
+        <v>3894.27</v>
+      </c>
+      <c r="E268">
+        <v>3874.4</v>
+      </c>
+      <c r="F268">
+        <v>3899.98</v>
+      </c>
+      <c r="G268">
+        <v>3899.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
